--- a/Asp_post_salvage/steady-state/H1299_SLC1A3/Prlfr_2/merged.xlsx
+++ b/Asp_post_salvage/steady-state/H1299_SLC1A3/Prlfr_2/merged.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/krdav/Google Drive/MCB/Sullivan_lab/lab-work/Asp_post_salvage/steady-state/H1299_SLC1A3/Prlfr_2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEB3194-142E-CB48-AD27-7344DBC00E2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A8B605F-B535-B149-89CF-2850B59C78C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="500" windowWidth="28560" windowHeight="16160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="269" uniqueCount="134">
   <si>
     <t>Sample ID</t>
   </si>
@@ -434,9 +434,6 @@
   </si>
   <si>
     <t>Prlfr vs. cell size</t>
-  </si>
-  <si>
-    <t>Size</t>
   </si>
 </sst>
 </file>
@@ -445,7 +442,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -518,7 +515,7 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -1528,7 +1525,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Size</c:v>
+                  <c:v>Vec</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1555,56 +1552,6 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="9.2199693788276471E-2"/>
-                  <c:y val="-0.65686096529600468"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$G$124:$G$135</c:f>
@@ -1674,31 +1621,128 @@
                 <c:pt idx="5">
                   <c:v>11156.25</c:v>
                 </c:pt>
-                <c:pt idx="6">
-                  <c:v>5198.5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>5513.25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5950.5</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>6065.75</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>7685.5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>10266</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7ED5-F240-B83F-AA9758709E99}"/>
+              <c16:uniqueId val="{00000000-98E8-EB46-8222-6A5B3FA7DA37}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$123</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Asp</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$124:$G$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1.0456626162942739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.0510314935008238</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.0221865162917498</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.9675890556114557</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.55556537695184782</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.30306702410769693</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.0503237092457223</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.0535347518469931</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.036487541496359</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.97820239945450915</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.68182974565686627</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.4190294167098253</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$124:$I$135</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="6">
+                  <c:v>5198.5</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5513.25</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5950.5</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6065.75</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7685.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>10266</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-98E8-EB46-8222-6A5B3FA7DA37}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1710,14 +1754,13 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="514791471"/>
-        <c:axId val="516756399"/>
+        <c:axId val="1675821312"/>
+        <c:axId val="1676560400"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="514791471"/>
+        <c:axId val="1675821312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="0.25"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1772,15 +1815,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="516756399"/>
+        <c:crossAx val="1676560400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="516756399"/>
+        <c:axId val="1676560400"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="4000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -1835,7 +1877,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="514791471"/>
+        <c:crossAx val="1675821312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1847,6 +1889,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -3635,23 +3708,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>152160</xdr:colOff>
-      <xdr:row>121</xdr:row>
-      <xdr:rowOff>54154</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>80273</xdr:colOff>
+      <xdr:row>120</xdr:row>
+      <xdr:rowOff>59904</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>650575</xdr:colOff>
-      <xdr:row>135</xdr:row>
-      <xdr:rowOff>113581</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>658961</xdr:colOff>
+      <xdr:row>138</xdr:row>
+      <xdr:rowOff>41693</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
+        <xdr:cNvPr id="5" name="Chart 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A90D7124-0CB4-9CE3-FE12-DF4738C19240}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89414746-A344-AF98-DC2C-BF85F37DFBD5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3996,7 +4069,7 @@
   <dimension ref="A1:Q135"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A105" zoomScale="106" workbookViewId="0">
-      <selection activeCell="S121" sqref="S121"/>
+      <selection activeCell="T125" sqref="T125"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -7336,20 +7409,23 @@
         <v>10266</v>
       </c>
     </row>
-    <row r="121" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="121" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G121" s="6" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="123" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="123" spans="6:9" x14ac:dyDescent="0.2">
       <c r="G123" t="s">
         <v>128</v>
       </c>
       <c r="H123" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="124" spans="6:8" x14ac:dyDescent="0.2">
+        <v>130</v>
+      </c>
+      <c r="I123" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="124" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F124" t="s">
         <v>130</v>
       </c>
@@ -7360,7 +7436,7 @@
         <v>5337.25</v>
       </c>
     </row>
-    <row r="125" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="125" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F125" t="s">
         <v>130</v>
       </c>
@@ -7371,7 +7447,7 @@
         <v>5704.5</v>
       </c>
     </row>
-    <row r="126" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="126" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F126" t="s">
         <v>130</v>
       </c>
@@ -7382,7 +7458,7 @@
         <v>6210</v>
       </c>
     </row>
-    <row r="127" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="127" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F127" t="s">
         <v>130</v>
       </c>
@@ -7393,7 +7469,7 @@
         <v>6089.5</v>
       </c>
     </row>
-    <row r="128" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="128" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F128" t="s">
         <v>130</v>
       </c>
@@ -7404,7 +7480,7 @@
         <v>8502</v>
       </c>
     </row>
-    <row r="129" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="129" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F129" t="s">
         <v>130</v>
       </c>
@@ -7415,69 +7491,69 @@
         <v>11156.25</v>
       </c>
     </row>
-    <row r="130" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="130" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F130" t="s">
         <v>131</v>
       </c>
       <c r="G130">
         <v>1.0503237092457223</v>
       </c>
-      <c r="H130">
+      <c r="I130">
         <v>5198.5</v>
       </c>
     </row>
-    <row r="131" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="131" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F131" t="s">
         <v>131</v>
       </c>
       <c r="G131">
         <v>1.0535347518469931</v>
       </c>
-      <c r="H131">
+      <c r="I131">
         <v>5513.25</v>
       </c>
     </row>
-    <row r="132" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="132" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F132" t="s">
         <v>131</v>
       </c>
       <c r="G132">
         <v>1.036487541496359</v>
       </c>
-      <c r="H132">
+      <c r="I132">
         <v>5950.5</v>
       </c>
     </row>
-    <row r="133" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="133" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F133" t="s">
         <v>131</v>
       </c>
       <c r="G133">
         <v>0.97820239945450915</v>
       </c>
-      <c r="H133">
+      <c r="I133">
         <v>6065.75</v>
       </c>
     </row>
-    <row r="134" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="134" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F134" t="s">
         <v>131</v>
       </c>
       <c r="G134">
         <v>0.68182974565686627</v>
       </c>
-      <c r="H134">
+      <c r="I134">
         <v>7685.5</v>
       </c>
     </row>
-    <row r="135" spans="6:8" x14ac:dyDescent="0.2">
+    <row r="135" spans="6:9" x14ac:dyDescent="0.2">
       <c r="F135" t="s">
         <v>131</v>
       </c>
       <c r="G135">
         <v>0.4190294167098253</v>
       </c>
-      <c r="H135">
+      <c r="I135">
         <v>10266</v>
       </c>
     </row>
